--- a/short.xlsx
+++ b/short.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B95B76-CB7E-4F02-83C4-F4F4A8DCFD0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCD974C-69D5-4404-ABDF-5E900048D832}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="3" xr2:uid="{D9A30828-4A88-47C5-BDE6-E10A8D8A21D2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{D9A30828-4A88-47C5-BDE6-E10A8D8A21D2}"/>
   </bookViews>
   <sheets>
     <sheet name="short" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Steve" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">short!$A$25:$D$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="287">
   <si>
     <t>Owner</t>
   </si>
@@ -115,18 +118,12 @@
     <t>X9SCV-Q</t>
   </si>
   <si>
-    <t xml:space="preserve">1 at Jeniffer cubic,still need 1 </t>
-  </si>
-  <si>
     <t>X11SDV-8C-TP8F</t>
   </si>
   <si>
     <t>X11SPD-F</t>
   </si>
   <si>
-    <t>2 at Rick cubic</t>
-  </si>
-  <si>
     <t>Item</t>
   </si>
   <si>
@@ -728,6 +725,174 @@
   </si>
   <si>
     <t>MBD-X11SSN-001</t>
+  </si>
+  <si>
+    <t>A2SAN-L</t>
+  </si>
+  <si>
+    <t>A2SAN-H</t>
+  </si>
+  <si>
+    <t>X10SDV-TP8F</t>
+  </si>
+  <si>
+    <t>X11SSV-LVDS</t>
+  </si>
+  <si>
+    <t>X11SDW-4C-TP13F</t>
+  </si>
+  <si>
+    <t>A2SDV-12C-NE008</t>
+  </si>
+  <si>
+    <t>X11SSN-H</t>
+  </si>
+  <si>
+    <t>X10SDV-4C-TLN2F</t>
+  </si>
+  <si>
+    <t>X11SSV-M4F</t>
+  </si>
+  <si>
+    <t>X10SDV-F</t>
+  </si>
+  <si>
+    <t>X11SDW-16C-TP13F</t>
+  </si>
+  <si>
+    <t>C7Q67</t>
+  </si>
+  <si>
+    <t>X11SAN</t>
+  </si>
+  <si>
+    <t>A1SRM-2558</t>
+  </si>
+  <si>
+    <t>AOM-BPN-MS28HS</t>
+  </si>
+  <si>
+    <t>C2SBC-Q</t>
+  </si>
+  <si>
+    <t>A2SAP-L</t>
+  </si>
+  <si>
+    <t>X11SSN-E</t>
+  </si>
+  <si>
+    <t>A2SAP-P</t>
+  </si>
+  <si>
+    <t>X11SSV-Q</t>
+  </si>
+  <si>
+    <t>X10SLV-Q</t>
+  </si>
+  <si>
+    <t>AOM-BPN-MC-12S4</t>
+  </si>
+  <si>
+    <t>X9SCE-F</t>
+  </si>
+  <si>
+    <t>X9SCD+-HF</t>
+  </si>
+  <si>
+    <t>X10SDV-CIBF-AM041</t>
+  </si>
+  <si>
+    <t>X10SLE-DF</t>
+  </si>
+  <si>
+    <t>X9SCD-F</t>
+  </si>
+  <si>
+    <t>X11SSE-F</t>
+  </si>
+  <si>
+    <t>X9SRD-F</t>
+  </si>
+  <si>
+    <t>X9SKV-1125</t>
+  </si>
+  <si>
+    <t>X11SAA</t>
+  </si>
+  <si>
+    <t>X9SPV-LN4F-3LE</t>
+  </si>
+  <si>
+    <t>X9SBAA-F</t>
+  </si>
+  <si>
+    <t>X9SCAA-L</t>
+  </si>
+  <si>
+    <t>X9SPV-F-3610ME</t>
+  </si>
+  <si>
+    <t>A1SRI-2758F</t>
+  </si>
+  <si>
+    <t>X9SCAA</t>
+  </si>
+  <si>
+    <t>X7SPE-H-D525</t>
+  </si>
+  <si>
+    <t>A2SDi-2C-HLN4F</t>
+  </si>
+  <si>
+    <t>X11SSZ-QF</t>
+  </si>
+  <si>
+    <t>X11SSZ-F</t>
+  </si>
+  <si>
+    <t>X11SDV-12C-TLN2F</t>
+  </si>
+  <si>
+    <t>A1SRM-LN5F-2358</t>
+  </si>
+  <si>
+    <t>A1SAM-2550F</t>
+  </si>
+  <si>
+    <t>X11SSA</t>
+  </si>
+  <si>
+    <t>X10SBA</t>
+  </si>
+  <si>
+    <t>A2SDV-8C-LN8F</t>
+  </si>
+  <si>
+    <t>Rick will give it to Steve</t>
+  </si>
+  <si>
+    <t>Jennifer to Jason</t>
+  </si>
+  <si>
+    <t>Extra MBs</t>
+  </si>
+  <si>
+    <t>Commnet</t>
+  </si>
+  <si>
+    <t>Jennifer books</t>
+  </si>
+  <si>
+    <t>2 at Rick's cubicle</t>
+  </si>
+  <si>
+    <t>at Jennifer's cubicle</t>
+  </si>
+  <si>
+    <t>At Jason's cubicle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 at Jennifer's cubicle, found one in extra MBs </t>
   </si>
 </sst>
 </file>
@@ -998,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1177,6 +1342,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1492,18 +1660,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B61BD4D-2C73-4706-B7A6-DEFA15BADE10}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -1554,9 +1722,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
@@ -1590,7 +1760,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7"/>
     </row>
@@ -1602,9 +1772,11 @@
         <v>12</v>
       </c>
       <c r="C8" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
@@ -1662,9 +1834,11 @@
         <v>19</v>
       </c>
       <c r="C14" s="6">
-        <v>-1</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
@@ -1680,7 +1854,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="6">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -1714,35 +1888,491 @@
         <v>27</v>
       </c>
       <c r="C19" s="14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>28</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="14">
-        <v>-1</v>
-      </c>
-      <c r="D20" s="11"/>
+        <v>0</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="14">
         <v>0</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>31</v>
-      </c>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="38" t="s">
+        <v>274</v>
+      </c>
+      <c r="B25" s="38">
+        <v>1</v>
+      </c>
+      <c r="C25" s="38"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="38" t="s">
+        <v>266</v>
+      </c>
+      <c r="B26" s="38">
+        <v>2</v>
+      </c>
+      <c r="C26" s="38"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="38" t="s">
+        <v>244</v>
+      </c>
+      <c r="B27" s="38">
+        <v>3</v>
+      </c>
+      <c r="C27" s="38"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="38" t="s">
+        <v>273</v>
+      </c>
+      <c r="B28" s="38">
+        <v>1</v>
+      </c>
+      <c r="C28" s="38"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="38" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="38">
+        <v>4</v>
+      </c>
+      <c r="C29" s="38"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B30" s="38">
+        <v>2</v>
+      </c>
+      <c r="C30" s="38"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>247</v>
+      </c>
+      <c r="B31" s="38">
+        <v>1</v>
+      </c>
+      <c r="C31" s="38"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>249</v>
+      </c>
+      <c r="B32" s="38">
+        <v>1</v>
+      </c>
+      <c r="C32" s="38"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="38">
+        <v>1</v>
+      </c>
+      <c r="C33" s="38"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="38" t="s">
+        <v>236</v>
+      </c>
+      <c r="B34" s="38">
+        <v>1</v>
+      </c>
+      <c r="C34" s="38"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="B35" s="38">
+        <v>1</v>
+      </c>
+      <c r="C35" s="38"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="B36" s="38">
+        <v>1</v>
+      </c>
+      <c r="C36" s="38"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>245</v>
+      </c>
+      <c r="B37" s="38">
+        <v>3</v>
+      </c>
+      <c r="C37" s="38"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
+        <v>246</v>
+      </c>
+      <c r="B38" s="38">
+        <v>1</v>
+      </c>
+      <c r="C38" s="38"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" s="38">
+        <v>2</v>
+      </c>
+      <c r="C39" s="38"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="B40" s="38">
+        <v>1</v>
+      </c>
+      <c r="C40" s="38"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="38">
+        <v>1</v>
+      </c>
+      <c r="C41" s="38"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="B42" s="38">
+        <v>3</v>
+      </c>
+      <c r="C42" s="38"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="38" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" s="38">
+        <v>1</v>
+      </c>
+      <c r="C43" s="38"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="38" t="s">
+        <v>233</v>
+      </c>
+      <c r="B44" s="38">
+        <v>1</v>
+      </c>
+      <c r="C44" s="38"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="B45" s="38">
+        <v>1</v>
+      </c>
+      <c r="C45" s="38"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="38" t="s">
+        <v>251</v>
+      </c>
+      <c r="B46" s="38">
+        <v>2</v>
+      </c>
+      <c r="C46" s="38"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="38" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" s="38">
+        <v>2</v>
+      </c>
+      <c r="C47" s="38"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="38" t="s">
+        <v>243</v>
+      </c>
+      <c r="B48" s="38">
+        <v>1</v>
+      </c>
+      <c r="C48" s="38"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="38">
+        <v>1</v>
+      </c>
+      <c r="C49" s="38"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="38" t="s">
+        <v>241</v>
+      </c>
+      <c r="B50" s="38">
+        <v>1</v>
+      </c>
+      <c r="C50" s="38"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="38" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="38">
+        <v>1</v>
+      </c>
+      <c r="C51" s="38"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="38" t="s">
+        <v>275</v>
+      </c>
+      <c r="B52" s="38">
+        <v>1</v>
+      </c>
+      <c r="C52" s="38"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="B53" s="38">
+        <v>1</v>
+      </c>
+      <c r="C53" s="38"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="38" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="38">
+        <v>2</v>
+      </c>
+      <c r="C54" s="38"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="B55" s="38">
+        <v>5</v>
+      </c>
+      <c r="C55" s="38"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
+        <v>234</v>
+      </c>
+      <c r="B56" s="38">
+        <v>2</v>
+      </c>
+      <c r="C56" s="38"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B57" s="38">
+        <v>1</v>
+      </c>
+      <c r="C57" s="38"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="38" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58" s="38">
+        <v>1</v>
+      </c>
+      <c r="C58" s="38"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="38" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="38">
+        <v>1</v>
+      </c>
+      <c r="C59" s="38"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" s="38">
+        <v>1</v>
+      </c>
+      <c r="C60" s="38"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="38" t="s">
+        <v>268</v>
+      </c>
+      <c r="B61" s="38">
+        <v>2</v>
+      </c>
+      <c r="C61" s="38"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="38" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" s="38">
+        <v>1</v>
+      </c>
+      <c r="C62" s="38"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B63" s="38">
+        <v>1</v>
+      </c>
+      <c r="C63" s="38"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="B64" s="38">
+        <v>1</v>
+      </c>
+      <c r="C64" s="38"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="38">
+        <v>1</v>
+      </c>
+      <c r="C65" s="38"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="B66" s="38">
+        <v>1</v>
+      </c>
+      <c r="C66" s="38"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67" s="38">
+        <v>1</v>
+      </c>
+      <c r="C67" s="38"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68" s="38">
+        <v>1</v>
+      </c>
+      <c r="C68" s="38" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="38" t="s">
+        <v>260</v>
+      </c>
+      <c r="B69" s="38">
+        <v>2</v>
+      </c>
+      <c r="C69" s="38"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="38" t="s">
+        <v>265</v>
+      </c>
+      <c r="B70" s="38">
+        <v>1</v>
+      </c>
+      <c r="C70" s="38"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="38" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="38">
+        <v>3</v>
+      </c>
+      <c r="C71" s="38"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72" s="38">
+        <v>1</v>
+      </c>
+      <c r="C72" s="38"/>
     </row>
   </sheetData>
+  <autoFilter ref="A25:D29" xr:uid="{34291B40-F556-4742-A879-70FC912F8C6B}"/>
+  <sortState ref="A25:B72">
+    <sortCondition ref="A25:A72"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1763,39 +2393,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="D1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="E1" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>40</v>
       </c>
       <c r="E3" s="16">
         <v>1</v>
@@ -1807,16 +2437,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="16">
         <v>1</v>
@@ -1828,37 +2458,37 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16">
         <v>4</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>44</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16">
@@ -1868,16 +2498,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="D7" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="16">
         <v>1</v>
@@ -1889,16 +2519,16 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="16">
         <v>1</v>
@@ -1913,13 +2543,13 @@
         <v>19</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="16">
         <v>1</v>
@@ -1931,16 +2561,16 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="16">
         <v>0</v>
@@ -1955,13 +2585,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E11" s="16">
         <v>1</v>
@@ -1973,16 +2603,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E12" s="16">
         <v>2</v>
@@ -1991,21 +2621,21 @@
         <v>2</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>61</v>
-      </c>
       <c r="D13" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E13" s="16">
         <v>0</v>
@@ -2017,16 +2647,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="16"/>
       <c r="F14" s="16">
@@ -2039,13 +2669,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16">
         <v>1</v>
@@ -2057,16 +2687,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E16" s="16">
         <v>1</v>
@@ -2078,16 +2708,16 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E17" s="16">
         <v>1</v>
@@ -2099,16 +2729,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E18" s="16">
         <v>1</v>
@@ -2128,7 +2758,7 @@
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2149,7 +2779,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -2164,7 +2794,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -2192,40 +2822,40 @@
     </row>
     <row r="4" spans="1:12" ht="26.5" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="21" t="s">
+      <c r="H4" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="22" t="s">
+      <c r="I4" s="23" t="s">
         <v>76</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>78</v>
       </c>
       <c r="J4" s="24" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L4" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -2233,19 +2863,19 @@
         <v>20</v>
       </c>
       <c r="B5" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="C5" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>82</v>
-      </c>
       <c r="E5" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" s="29"/>
       <c r="H5" s="30">
@@ -2256,42 +2886,44 @@
         <v>1</v>
       </c>
       <c r="K5" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L5" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="27" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="30"/>
+      <c r="H6" s="30">
+        <v>1</v>
+      </c>
       <c r="I6" s="30"/>
       <c r="J6" s="31">
         <v>1</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L6" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -2299,19 +2931,19 @@
         <v>20</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="29"/>
       <c r="H7" s="30">
@@ -2324,10 +2956,10 @@
         <v>3</v>
       </c>
       <c r="K7" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L7" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="26" x14ac:dyDescent="0.35">
@@ -2338,16 +2970,16 @@
         <v>22</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>91</v>
-      </c>
       <c r="F8" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G8" s="29"/>
       <c r="H8" s="30"/>
@@ -2356,10 +2988,10 @@
         <v>5</v>
       </c>
       <c r="K8" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -2367,19 +2999,19 @@
         <v>20</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G9" s="29"/>
       <c r="H9" s="30">
@@ -2390,10 +3022,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -2401,19 +3033,19 @@
         <v>20</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G10" s="29"/>
       <c r="H10" s="30">
@@ -2424,10 +3056,10 @@
         <v>1</v>
       </c>
       <c r="K10" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -2435,19 +3067,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F11" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G11" s="29"/>
       <c r="H11" s="30">
@@ -2458,10 +3090,10 @@
         <v>1</v>
       </c>
       <c r="K11" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L11" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -2469,19 +3101,19 @@
         <v>20</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E12" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="29"/>
       <c r="H12" s="30">
@@ -2492,10 +3124,10 @@
         <v>1</v>
       </c>
       <c r="K12" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L12" s="37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -2503,33 +3135,33 @@
         <v>20</v>
       </c>
       <c r="B13" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="E13" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>107</v>
-      </c>
       <c r="F13" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G13" s="29"/>
       <c r="H13" s="30"/>
       <c r="I13" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" s="38" t="s">
         <v>108</v>
-      </c>
-      <c r="J13" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="K13" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="L13" s="38" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -2537,19 +3169,19 @@
         <v>20</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E14" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F14" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G14" s="29">
         <v>1</v>
@@ -2560,10 +3192,10 @@
         <v>1</v>
       </c>
       <c r="K14" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L14" s="38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -2571,19 +3203,19 @@
         <v>20</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="E15" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="D15" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G15" s="29"/>
       <c r="H15" s="30"/>
@@ -2594,10 +3226,10 @@
         <v>1</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L15" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -2605,19 +3237,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="44">
@@ -2628,10 +3260,10 @@
         <v>6</v>
       </c>
       <c r="K16" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L16" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
@@ -2639,19 +3271,19 @@
         <v>20</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C17" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="D17" s="42" t="s">
-        <v>122</v>
-      </c>
       <c r="E17" s="43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="43"/>
       <c r="H17" s="44"/>
@@ -2660,7 +3292,7 @@
         <v>-1</v>
       </c>
       <c r="K17" s="42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L17" s="46"/>
     </row>
@@ -2669,19 +3301,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D18" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G18" s="29">
         <v>1</v>
@@ -2692,7 +3324,7 @@
         <v>1</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L18" s="38"/>
     </row>
@@ -2701,19 +3333,19 @@
         <v>20</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D19" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E19" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F19" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G19" s="29"/>
       <c r="H19" s="30">
@@ -2724,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L19" s="38"/>
     </row>
@@ -2733,19 +3365,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C20" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D20" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E20" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F20" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G20" s="29"/>
       <c r="H20" s="30">
@@ -2756,7 +3388,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L20" s="38"/>
     </row>
@@ -2765,19 +3397,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="47" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C21" s="48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G21" s="49"/>
       <c r="H21" s="50">
@@ -2788,10 +3420,10 @@
         <v>6</v>
       </c>
       <c r="K21" s="48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L21" s="52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.35">
@@ -2799,19 +3431,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E22" s="49" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="49" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G22" s="49"/>
       <c r="H22" s="50"/>
@@ -2820,7 +3452,7 @@
         <v>-1</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L22" s="52"/>
     </row>
@@ -2829,19 +3461,19 @@
         <v>20</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E23" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F23" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G23" s="29"/>
       <c r="H23" s="30">
@@ -2852,7 +3484,7 @@
         <v>8</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L23" s="38"/>
     </row>
@@ -2861,19 +3493,19 @@
         <v>20</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G24" s="29"/>
       <c r="H24" s="30">
@@ -2884,7 +3516,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L24" s="38"/>
     </row>
@@ -2893,19 +3525,19 @@
         <v>20</v>
       </c>
       <c r="B25" s="54" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D25" s="55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E25" s="56" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F25" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G25" s="56">
         <v>1</v>
@@ -2918,10 +3550,10 @@
         <v>11</v>
       </c>
       <c r="K25" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L25" s="59" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
@@ -2929,19 +3561,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C26" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D26" s="55" t="s">
-        <v>141</v>
-      </c>
       <c r="E26" s="56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F26" s="56" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G26" s="56"/>
       <c r="H26" s="57"/>
@@ -2950,7 +3582,7 @@
         <v>-1</v>
       </c>
       <c r="K26" s="55" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L26" s="59"/>
     </row>
@@ -2959,19 +3591,19 @@
         <v>20</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="29"/>
       <c r="H27" s="30">
@@ -2984,7 +3616,7 @@
         <v>3</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L27" s="38"/>
     </row>
@@ -2993,19 +3625,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G28" s="29"/>
       <c r="H28" s="30">
@@ -3016,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="K28" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L28" s="38"/>
     </row>
@@ -3025,19 +3657,19 @@
         <v>20</v>
       </c>
       <c r="B29" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E29" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>49</v>
-      </c>
       <c r="F29" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G29" s="29"/>
       <c r="H29" s="30"/>
@@ -3048,10 +3680,10 @@
         <v>1</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L29" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
@@ -3059,19 +3691,19 @@
         <v>20</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D30" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G30" s="29"/>
       <c r="H30" s="30">
@@ -3082,7 +3714,7 @@
         <v>1</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L30" s="60"/>
     </row>
@@ -3091,19 +3723,19 @@
         <v>20</v>
       </c>
       <c r="B31" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C31" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D31" s="28" t="s">
-        <v>152</v>
-      </c>
       <c r="E31" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G31" s="29"/>
       <c r="H31" s="30">
@@ -3114,10 +3746,10 @@
         <v>1</v>
       </c>
       <c r="K31" s="34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L31" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="26" x14ac:dyDescent="0.35">
@@ -3125,19 +3757,19 @@
         <v>20</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D32" s="28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E32" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="29"/>
       <c r="H32" s="30"/>
@@ -3148,10 +3780,10 @@
         <v>1</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L32" s="36" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.35">
@@ -3159,19 +3791,19 @@
         <v>20</v>
       </c>
       <c r="B33" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D33" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E33" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F33" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G33" s="29"/>
       <c r="H33" s="30">
@@ -3182,10 +3814,10 @@
         <v>5</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -3193,19 +3825,19 @@
         <v>20</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C34" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D34" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E34" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F34" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G34" s="29"/>
       <c r="H34" s="30">
@@ -3216,10 +3848,10 @@
         <v>1</v>
       </c>
       <c r="K34" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -3227,19 +3859,19 @@
         <v>20</v>
       </c>
       <c r="B35" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D35" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E35" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F35" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G35" s="29"/>
       <c r="H35" s="30">
@@ -3250,7 +3882,7 @@
         <v>1</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L35" s="38"/>
     </row>
@@ -3259,19 +3891,19 @@
         <v>20</v>
       </c>
       <c r="B36" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E36" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F36" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="30">
@@ -3282,7 +3914,7 @@
         <v>4</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L36" s="38"/>
     </row>
@@ -3291,19 +3923,19 @@
         <v>20</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E37" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G37" s="29"/>
       <c r="H37" s="30">
@@ -3314,7 +3946,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L37" s="38"/>
     </row>
@@ -3323,19 +3955,19 @@
         <v>20</v>
       </c>
       <c r="B38" s="27" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D38" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E38" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F38" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="30">
@@ -3346,7 +3978,7 @@
         <v>4</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L38" s="38"/>
     </row>
@@ -3355,19 +3987,19 @@
         <v>20</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D39" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F39" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G39" s="29"/>
       <c r="H39" s="30">
@@ -3378,7 +4010,7 @@
         <v>3</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L39" s="38"/>
     </row>
@@ -3387,19 +4019,19 @@
         <v>20</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D40" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E40" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F40" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="30"/>
@@ -3410,10 +4042,10 @@
         <v>1</v>
       </c>
       <c r="K40" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L40" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -3421,19 +4053,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D41" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E41" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F41" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G41" s="29"/>
       <c r="H41" s="30"/>
@@ -3444,10 +4076,10 @@
         <v>1</v>
       </c>
       <c r="K41" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L41" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.35">
@@ -3455,19 +4087,19 @@
         <v>20</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E42" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F42" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="30">
@@ -3478,7 +4110,7 @@
         <v>1</v>
       </c>
       <c r="K42" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L42" s="38"/>
     </row>
@@ -3487,19 +4119,19 @@
         <v>20</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D43" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E43" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G43" s="29"/>
       <c r="H43" s="30">
@@ -3512,10 +4144,10 @@
         <v>1</v>
       </c>
       <c r="K43" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L43" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.35">
@@ -3523,19 +4155,19 @@
         <v>20</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="28" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D44" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E44" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F44" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G44" s="29"/>
       <c r="H44" s="30">
@@ -3546,7 +4178,7 @@
         <v>4</v>
       </c>
       <c r="K44" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L44" s="38"/>
     </row>
@@ -3555,19 +4187,19 @@
         <v>20</v>
       </c>
       <c r="B45" s="61" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E45" s="63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F45" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G45" s="63"/>
       <c r="H45" s="64">
@@ -3578,10 +4210,10 @@
         <v>3</v>
       </c>
       <c r="K45" s="62" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L45" s="66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:12" s="53" customFormat="1" x14ac:dyDescent="0.35">
@@ -3589,19 +4221,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E46" s="63" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F46" s="63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G46" s="63"/>
       <c r="H46" s="64"/>
@@ -3610,7 +4242,7 @@
         <v>-1</v>
       </c>
       <c r="K46" s="62" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L46" s="66"/>
     </row>
@@ -3619,19 +4251,19 @@
         <v>20</v>
       </c>
       <c r="B47" s="68" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C47" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D47" s="69" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F47" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G47" s="70"/>
       <c r="H47" s="71">
@@ -3642,10 +4274,10 @@
         <v>3</v>
       </c>
       <c r="K47" s="69" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L47" s="73" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.35">
@@ -3653,19 +4285,19 @@
         <v>20</v>
       </c>
       <c r="B48" s="69" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C48" s="69" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D48" s="69" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F48" s="70" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G48" s="70"/>
       <c r="H48" s="71"/>
@@ -3674,7 +4306,7 @@
         <v>-1</v>
       </c>
       <c r="K48" s="69" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L48" s="73"/>
     </row>
@@ -3686,16 +4318,16 @@
         <v>24</v>
       </c>
       <c r="C49" s="28" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D49" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E49" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F49" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G49" s="29"/>
       <c r="H49" s="30">
@@ -3706,7 +4338,7 @@
         <v>10</v>
       </c>
       <c r="K49" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L49" s="38"/>
     </row>
@@ -3715,19 +4347,19 @@
         <v>20</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C50" s="28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D50" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E50" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F50" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G50" s="29"/>
       <c r="H50" s="30">
@@ -3738,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="K50" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L50" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.35">
@@ -3749,19 +4381,19 @@
         <v>20</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C51" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D51" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F51" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G51" s="29"/>
       <c r="H51" s="30">
@@ -3772,10 +4404,10 @@
         <v>1</v>
       </c>
       <c r="K51" s="34" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L51" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -3783,19 +4415,19 @@
         <v>20</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" s="28" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D52" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E52" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F52" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G52" s="29">
         <v>1</v>
@@ -3808,7 +4440,7 @@
         <v>3</v>
       </c>
       <c r="K52" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L52" s="36"/>
     </row>
@@ -3820,16 +4452,16 @@
         <v>25</v>
       </c>
       <c r="C53" s="74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D53" s="74" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" s="75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G53" s="75"/>
       <c r="H53" s="76">
@@ -3840,10 +4472,10 @@
         <v>4</v>
       </c>
       <c r="K53" s="74" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L53" s="78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.35">
@@ -3854,16 +4486,16 @@
         <v>25</v>
       </c>
       <c r="C54" s="74" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D54" s="74" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E54" s="75" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F54" s="75" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G54" s="75"/>
       <c r="H54" s="76"/>
@@ -3872,7 +4504,7 @@
         <v>-1</v>
       </c>
       <c r="K54" s="74" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L54" s="78"/>
     </row>
@@ -3881,19 +4513,19 @@
         <v>20</v>
       </c>
       <c r="B55" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C55" s="28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D55" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E55" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F55" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G55" s="29"/>
       <c r="H55" s="30">
@@ -3906,10 +4538,10 @@
         <v>3</v>
       </c>
       <c r="K55" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L55" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.35">
@@ -3917,19 +4549,19 @@
         <v>20</v>
       </c>
       <c r="B56" s="27" t="s">
+        <v>194</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="D56" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="E56" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="D56" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="E56" s="29" t="s">
-        <v>199</v>
-      </c>
       <c r="F56" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="30"/>
@@ -3940,10 +4572,10 @@
         <v>4</v>
       </c>
       <c r="K56" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="L56" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="26" x14ac:dyDescent="0.35">
@@ -3951,19 +4583,19 @@
         <v>20</v>
       </c>
       <c r="B57" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C57" s="28" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" s="28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E57" s="29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F57" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G57" s="29"/>
       <c r="H57" s="30"/>
@@ -3974,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="K57" s="28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L57" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
@@ -3985,19 +4617,19 @@
         <v>20</v>
       </c>
       <c r="B58" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C58" s="28" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D58" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E58" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F58" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G58" s="29"/>
       <c r="H58" s="30">
@@ -4008,7 +4640,7 @@
         <v>6</v>
       </c>
       <c r="K58" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L58" s="38"/>
     </row>
@@ -4017,19 +4649,19 @@
         <v>20</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C59" s="28" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D59" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E59" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F59" s="29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="30"/>
@@ -4040,10 +4672,10 @@
         <v>1</v>
       </c>
       <c r="K59" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L59" s="38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +4687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D65FBC-6FF9-4E9C-A6F9-0145F66719FC}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -4068,7 +4700,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4084,7 +4716,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -4100,101 +4732,101 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>35</v>
-      </c>
       <c r="H4" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="I4" s="15" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L4" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="83" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="83" t="s">
+      <c r="D5" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="E5" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" s="16" t="s">
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
-      <c r="J5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B6" s="83" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F6" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H6" s="16">
         <v>2</v>
@@ -4203,36 +4835,36 @@
         <v>2</v>
       </c>
       <c r="J6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B7" s="83" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H7" s="16">
         <v>2</v>
@@ -4241,72 +4873,72 @@
         <v>3</v>
       </c>
       <c r="J7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B8" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="C8" s="16" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>219</v>
-      </c>
       <c r="F8" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H8" s="16"/>
       <c r="I8" s="16">
         <v>-1</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K8" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B9" s="83" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H9" s="16">
         <v>2</v>
@@ -4315,72 +4947,72 @@
         <v>4</v>
       </c>
       <c r="J9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L9" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K9" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H10" s="16"/>
       <c r="I10" s="16">
         <v>-2</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K10" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L10" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B11" s="84" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H11" s="16">
         <v>15</v>
@@ -4389,112 +5021,112 @@
         <v>15</v>
       </c>
       <c r="J11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L11" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L11" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B12" s="83" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16">
-        <v>1</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B13" s="83" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16">
+        <v>1</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16">
-        <v>1</v>
-      </c>
-      <c r="J13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L13" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F14" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G14" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H14" s="16">
         <v>2</v>
@@ -4503,36 +5135,36 @@
         <v>2</v>
       </c>
       <c r="J14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L14" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="K14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B15" s="85" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H15" s="16">
         <v>0</v>
@@ -4541,89 +5173,89 @@
         <v>1</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="L15" s="16" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B16" s="83" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L16" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H16" s="16">
-        <v>1</v>
-      </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L16" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B17" s="83" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>212</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1</v>
+      </c>
+      <c r="I17" s="16">
+        <v>1</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" s="16" t="s">
         <v>39</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="H17" s="16">
-        <v>1</v>
-      </c>
-      <c r="I17" s="16">
-        <v>1</v>
-      </c>
-      <c r="J17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="L17" s="16" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>
